--- a/Data/Pages/PageInheritance.xlsx
+++ b/Data/Pages/PageInheritance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7887FCF-0C35-4C20-9529-106B384CC4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF8C9F2-8B40-4E8F-80BF-C90F28636D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2136" yWindow="780" windowWidth="35280" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3396" yWindow="1368" windowWidth="33276" windowHeight="14664" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Title</t>
   </si>
@@ -63,28 +63,64 @@
     <t>dlgTruckInsurance_pagPriceOption</t>
   </si>
   <si>
-    <t>dlgMotorcycleInsurance_pagPriceOptione</t>
-  </si>
-  <si>
     <t>dlgCamperInsurance_pagPriceOption</t>
   </si>
   <si>
     <t>dlgBaseInsurance_pagPriceOption</t>
   </si>
   <si>
-    <t>dlgAutomobileInsurance_pagInsurantOption</t>
-  </si>
-  <si>
-    <t>dlgTruckInsurance_pagInsurantOption</t>
-  </si>
-  <si>
-    <t>dlgMotorcycleInsurance_pagInsurantOption</t>
-  </si>
-  <si>
-    <t>dlgCamperInsurance_pagInsurantOption</t>
-  </si>
-  <si>
-    <t>dlgBaseInsurance_pagInsurantOption</t>
+    <t>dlgAutomobileInsurance_pagInsurantData</t>
+  </si>
+  <si>
+    <t>dlgTruckInsurance_pagInsurantData</t>
+  </si>
+  <si>
+    <t>dlgMotorcycleInsurance_pagInsurantData</t>
+  </si>
+  <si>
+    <t>dlgCamperInsurance_pagInsurantData</t>
+  </si>
+  <si>
+    <t>dlgBaseInsurance_pagInsurantData</t>
+  </si>
+  <si>
+    <t>dlgAutomobileInsurance_pagVehicleData</t>
+  </si>
+  <si>
+    <t>dlgTruckInsurance_pagVehicleData</t>
+  </si>
+  <si>
+    <t>dlgMotorcycleInsurance_pagVehicleData</t>
+  </si>
+  <si>
+    <t>dlgCamperInsurance_pagVehicleData</t>
+  </si>
+  <si>
+    <t>dlgAutomobileInsurance_pagProductData</t>
+  </si>
+  <si>
+    <t>dlgTruckInsurance_pagProductData</t>
+  </si>
+  <si>
+    <t>dlgMotorcycleInsurance_pagProductData</t>
+  </si>
+  <si>
+    <t>dlgCamperInsurance_pagProductData</t>
+  </si>
+  <si>
+    <t>dlgMain_pagTrainings</t>
+  </si>
+  <si>
+    <t>dlgProfil_pagAbwesenheiten</t>
+  </si>
+  <si>
+    <t>dlgProfil_pagBenachrichtigungen</t>
+  </si>
+  <si>
+    <t>dlgProfil_pagProfil</t>
+  </si>
+  <si>
+    <t>dlgMotorcycleInsurance_pagPriceOption</t>
   </si>
 </sst>
 </file>
@@ -437,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,98 +507,158 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B21" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
